--- a/perkinites.xlsx
+++ b/perkinites.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>NC</t>
   </si>
@@ -421,6 +421,57 @@
   </si>
   <si>
     <t>Excellent AOE and support. Reliant on friendship for damage</t>
+  </si>
+  <si>
+    <t>Tevin Jackson</t>
+  </si>
+  <si>
+    <t>Lixian Wang</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Lung Crusher</t>
+  </si>
+  <si>
+    <t>Sonic Laugh</t>
+  </si>
+  <si>
+    <t>Deep Sleep</t>
+  </si>
+  <si>
+    <t>60% over time</t>
+  </si>
+  <si>
+    <t>Damages and slows enemies in a cone</t>
+  </si>
+  <si>
+    <t>Deals massive damage to a single enemy</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>and…no</t>
+  </si>
+  <si>
+    <t>Regains massive health. Tevin cannot move or cast spells at this time</t>
+  </si>
+  <si>
+    <t>Great endurance single-target fighter</t>
+  </si>
+  <si>
+    <t>Shielded single-target fighter</t>
   </si>
 </sst>
 </file>
@@ -763,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,7 +1197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1157,7 +1208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1168,7 +1219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1190,7 +1241,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1255,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1212,12 +1263,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1229,61 +1280,266 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="U27" s="1"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>120</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="L30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>140</v>
+      </c>
+      <c r="H33">
+        <v>60</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>150</v>
+      </c>
+      <c r="N34" t="s">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="I35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="N36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37">
+        <v>230</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>40</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1300,66 +1556,63 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="T39" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="47" spans="1:24">
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1379,19 +1632,14 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="55" spans="1:22">
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1408,23 +1656,21 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -1437,16 +1683,14 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1460,35 +1704,23 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="N64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="N65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="V63" s="1"/>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1501,19 +1733,26 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-    </row>
-    <row r="71" spans="1:23">
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -1522,36 +1761,21 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="N72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
-      <c r="A73" t="s">
-        <v>37</v>
-      </c>
-      <c r="N73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -1568,18 +1792,31 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-    </row>
-    <row r="79" spans="1:23">
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="N76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="N77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -1594,82 +1831,18 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="S79" s="1"/>
-      <c r="T79" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:23">
-      <c r="A80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80">
-        <v>30</v>
-      </c>
-      <c r="L80">
-        <v>10</v>
-      </c>
-      <c r="N80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81">
-        <v>120</v>
-      </c>
-      <c r="E81">
-        <v>100</v>
-      </c>
-      <c r="F81">
-        <v>40</v>
-      </c>
-      <c r="G81">
-        <v>20</v>
-      </c>
-      <c r="N81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82">
-        <v>50</v>
-      </c>
-      <c r="L82" t="s">
-        <v>125</v>
-      </c>
-      <c r="N82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:23">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E83" s="1">
-        <v>50</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -1679,112 +1852,108 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="T83" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84">
-        <v>80</v>
-      </c>
-      <c r="E84">
-        <v>200</v>
-      </c>
-      <c r="F84">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N84" t="s">
-        <v>69</v>
-      </c>
-      <c r="T84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85">
-        <v>140</v>
-      </c>
-      <c r="H85">
-        <v>60</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0.5</v>
+        <v>37</v>
       </c>
       <c r="N85" t="s">
-        <v>43</v>
-      </c>
-      <c r="T85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86">
-        <v>30</v>
-      </c>
-      <c r="E86">
-        <v>150</v>
-      </c>
-      <c r="N86" t="s">
-        <v>71</v>
-      </c>
-      <c r="T86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" s="1" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" s="1" customFormat="1">
-      <c r="A91" s="1" t="s">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="95" spans="1:22">
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-    </row>
-    <row r="99" spans="21:22">
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-    </row>
-    <row r="103" spans="21:22">
-      <c r="U103" s="1"/>
-    </row>
-    <row r="107" spans="21:22">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="99" spans="1:22" s="1" customFormat="1"/>
+    <row r="103" spans="1:22" s="1" customFormat="1"/>
+    <row r="104" spans="1:22">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="107" spans="1:22">
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
     </row>
-    <row r="111" spans="21:22">
+    <row r="111" spans="1:22">
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
     </row>
     <row r="115" spans="21:22">
       <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
+    </row>
+    <row r="119" spans="21:22">
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+    </row>
+    <row r="123" spans="21:22">
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+    </row>
+    <row r="127" spans="21:22">
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/perkinites.xlsx
+++ b/perkinites.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>NC</t>
   </si>
@@ -472,6 +472,27 @@
   </si>
   <si>
     <t>Shielded single-target fighter</t>
+  </si>
+  <si>
+    <t>Chris Piette</t>
+  </si>
+  <si>
+    <t>David Romero</t>
+  </si>
+  <si>
+    <t>Side Burn</t>
+  </si>
+  <si>
+    <t>Lift Lid</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
 </sst>
 </file>
@@ -814,11 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X127"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1579,98 +1600,79 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -1685,11 +1687,9 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1709,23 +1709,20 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -1740,14 +1737,12 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -1765,18 +1760,19 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -1789,34 +1785,21 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:22">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="N76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" t="s">
-        <v>63</v>
-      </c>
-      <c r="N77" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -1830,19 +1813,26 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -1854,31 +1844,29 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N84" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N85" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1901,47 +1889,104 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="N93" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-    </row>
-    <row r="99" spans="1:22" s="1" customFormat="1"/>
-    <row r="103" spans="1:22" s="1" customFormat="1"/>
-    <row r="104" spans="1:22">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="107" spans="1:22">
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-    </row>
-    <row r="111" spans="1:22">
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1"/>
+    <row r="111" spans="1:7" s="1" customFormat="1"/>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="115" spans="21:22">
       <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
     </row>
     <row r="119" spans="21:22">
       <c r="U119" s="1"/>
@@ -1949,11 +1994,18 @@
     </row>
     <row r="123" spans="21:22">
       <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
     </row>
     <row r="127" spans="21:22">
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
+    </row>
+    <row r="131" spans="21:22">
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+    </row>
+    <row r="135" spans="21:22">
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
